--- a/trial.xlsx
+++ b/trial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f134cc12402e67b9/Documents/GitHub/psyc160_final_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_F25DC773A252ABDACC104871C95C6B805BDE58E5" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{86B9DF0F-FC24-48D8-80EB-6D55B3EADA87}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_F25DC773A252ABDACC104871C95C6B805BDE58E5" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CF8211A2-10A7-4FE8-9BE0-62D066FC9649}"/>
   <bookViews>
-    <workbookView xWindow="-6960" yWindow="7092" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="13">
   <si>
     <t>congruency</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>pol</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>k</t>
   </si>
 </sst>
 </file>
@@ -372,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
@@ -383,7 +392,7 @@
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -396,8 +405,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -410,8 +422,11 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -424,8 +439,11 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -438,8 +456,11 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -452,8 +473,11 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -466,8 +490,11 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -480,8 +507,11 @@
       <c r="D7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -494,8 +524,11 @@
       <c r="D8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -508,8 +541,11 @@
       <c r="D9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -522,8 +558,11 @@
       <c r="D10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -536,8 +575,11 @@
       <c r="D11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -550,8 +592,11 @@
       <c r="D12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -564,8 +609,11 @@
       <c r="D13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -578,8 +626,11 @@
       <c r="D14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -592,8 +643,11 @@
       <c r="D15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -606,8 +660,11 @@
       <c r="D16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -620,8 +677,11 @@
       <c r="D17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -634,8 +694,11 @@
       <c r="D18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -648,8 +711,11 @@
       <c r="D19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -662,8 +728,11 @@
       <c r="D20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -676,8 +745,11 @@
       <c r="D21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -690,8 +762,11 @@
       <c r="D22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -704,8 +779,11 @@
       <c r="D23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -718,8 +796,11 @@
       <c r="D24" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -731,6 +812,9 @@
       </c>
       <c r="D25" t="s">
         <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/trial.xlsx
+++ b/trial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f134cc12402e67b9/Documents/GitHub/psyc160_final_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_F25DC773A252ABDACC104871C95C6B805BDE58E5" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CF8211A2-10A7-4FE8-9BE0-62D066FC9649}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_F25DC773A252ABDACC104871C95C6B805BDE58E5" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7F5C990C-67D1-4DB0-95A4-7F4DBF8BAA49}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3192" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="14">
   <si>
     <t>congruency</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>k</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -381,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
@@ -392,7 +395,7 @@
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,7 +412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -426,7 +429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -443,7 +446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -460,7 +463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -477,7 +480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -494,7 +497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -511,7 +514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -528,7 +531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -545,7 +548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -562,7 +565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -579,7 +582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -596,7 +599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -612,8 +615,11 @@
       <c r="E13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -630,7 +636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -647,7 +653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>

--- a/trial.xlsx
+++ b/trial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f134cc12402e67b9/Documents/GitHub/psyc160_final_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_F25DC773A252ABDACC104871C95C6B805BDE58E5" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7F5C990C-67D1-4DB0-95A4-7F4DBF8BAA49}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_F25DC773A252ABDACC104871C95C6B805BDE58E5" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F8D48418-D139-4E92-927E-6EEB0BA9A0F7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3192" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5112" yWindow="5856" windowWidth="21492" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
